--- a/values_for_regression.xlsx
+++ b/values_for_regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/home/Documents/Westphalia-Code-II/Westphalia-II/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E46E8595-48FE-5948-99EA-A45A97BBF68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB7C6CC-1544-3A48-83B9-1192E28A694F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1260" windowWidth="27640" windowHeight="16040" xr2:uid="{F337125E-7C20-1142-BC97-5C425AA5CE38}"/>
+    <workbookView xWindow="7300" yWindow="760" windowWidth="20960" windowHeight="16040" xr2:uid="{F337125E-7C20-1142-BC97-5C425AA5CE38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,1004 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
+  <si>
+    <t>problem_solving_score</t>
+  </si>
+  <si>
+    <t>temp_dev</t>
+  </si>
+  <si>
+    <t>precip_dev</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>AGO</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>ALG</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>BGR</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>BHU</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>CBV</t>
+  </si>
+  <si>
+    <t>CDI</t>
+  </si>
+  <si>
+    <t>CHL</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>CRO</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>ERT</t>
+  </si>
+  <si>
+    <t>ESA</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>ESW</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FJI</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>GUA</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HND</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>ICL</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>IRN</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>KWT</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>LVA</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>MNE</t>
+  </si>
+  <si>
+    <t>MNG</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>MYS</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>NKO</t>
+  </si>
+  <si>
+    <t>NLD</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>OMN</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PHL</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>PRT</t>
+  </si>
+  <si>
+    <t>PRY</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>SAF</t>
+  </si>
+  <si>
+    <t>SAU</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>SKO</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>SUI</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>SYC</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>URY</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Congo, DR</t>
+  </si>
+  <si>
+    <t>Congo, Rep.</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kyrgyz Rep.</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +1400,2321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2D55B5-CC42-8846-B1CC-6688CFCF7554}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>8.2179219999999908</v>
+      </c>
+      <c r="E2">
+        <v>56.502500829493101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2.9613974999999799</v>
+      </c>
+      <c r="E3">
+        <v>65.147114669738798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>10.788769500000001</v>
+      </c>
+      <c r="E4">
+        <v>216.453268778802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>4.8122534999999997</v>
+      </c>
+      <c r="E5">
+        <v>14.434847466205801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1.76727290000002</v>
+      </c>
+      <c r="E6">
+        <v>98.331309877112105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>4.7888997</v>
+      </c>
+      <c r="E7">
+        <v>76.941434324116699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1.2242166999999999</v>
+      </c>
+      <c r="E8">
+        <v>58.458340514592898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>6.8275715999999997</v>
+      </c>
+      <c r="E9">
+        <v>94.0113616743471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0.62737629999998001</v>
+      </c>
+      <c r="E10">
+        <v>62.926562357910903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>0.99365230000000804</v>
+      </c>
+      <c r="E11">
+        <v>300.65946474654402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>4.6508789000000101</v>
+      </c>
+      <c r="E12">
+        <v>97.087486912442401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>0.93366350000002296</v>
+      </c>
+      <c r="E13">
+        <v>98.249893655913993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>0.28297530000003202</v>
+      </c>
+      <c r="E14">
+        <v>101.262301935484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>1.6022050000000301</v>
+      </c>
+      <c r="E15">
+        <v>265.33772081413201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>13.3555502</v>
+      </c>
+      <c r="E16">
+        <v>88.310835023041406</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>2.8936767999999802</v>
+      </c>
+      <c r="E17">
+        <v>111.428056205837</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>3.9930013</v>
+      </c>
+      <c r="E18">
+        <v>242.66054523809501</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>12.818492600000001</v>
+      </c>
+      <c r="E19">
+        <v>140.57583422427001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>14.831287600000101</v>
+      </c>
+      <c r="E20">
+        <v>60.697369047618999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>0.36637369999999703</v>
+      </c>
+      <c r="E21">
+        <v>147.49895875575999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>0.48859899999996498</v>
+      </c>
+      <c r="E22">
+        <v>87.728191167434701</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>0.95938069999999698</v>
+      </c>
+      <c r="E23">
+        <v>94.526869124423996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>2.8026979000000001</v>
+      </c>
+      <c r="E24">
+        <v>89.640626827957007</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>1.11717269999997</v>
+      </c>
+      <c r="E25">
+        <v>212.67440364055301</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>0.86118449999997904</v>
+      </c>
+      <c r="E26">
+        <v>22.4023257219662</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
+        <v>0.47943800000001602</v>
+      </c>
+      <c r="E27">
+        <v>63.933394142089099</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>0.88479430000001003</v>
+      </c>
+      <c r="E28">
+        <v>100.95154047619</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>1.4503056000000401</v>
+      </c>
+      <c r="E29">
+        <v>96.990728571428605</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>2.43205000000444E-2</v>
+      </c>
+      <c r="E30">
+        <v>54.148053801843297</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31">
+        <v>0.12147150000004101</v>
+      </c>
+      <c r="E31">
+        <v>121.362644777266</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>0.75704410000002997</v>
+      </c>
+      <c r="E32">
+        <v>319.15187903225802</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>0.50696909999999196</v>
+      </c>
+      <c r="E33">
+        <v>158.77024055299501</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34">
+        <v>0.26529420000002801</v>
+      </c>
+      <c r="E34">
+        <v>147.19986251920099</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35">
+        <v>1.6652019</v>
+      </c>
+      <c r="E35">
+        <v>240.739800015361</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36">
+        <v>1.20576170000004</v>
+      </c>
+      <c r="E36">
+        <v>378.33722534562202</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37">
+        <v>10.3747781</v>
+      </c>
+      <c r="E37">
+        <v>125.568282319508</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38">
+        <v>1.5731445000000099</v>
+      </c>
+      <c r="E38">
+        <v>100.02770394777301</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39">
+        <v>2.6372070000000498</v>
+      </c>
+      <c r="E39">
+        <v>75.3594575729647</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40">
+        <v>7.2431641000000004</v>
+      </c>
+      <c r="E40">
+        <v>72.713869339477796</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41">
+        <v>5.7174805000000202</v>
+      </c>
+      <c r="E41">
+        <v>82.483910560675895</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>1.6665039000000099</v>
+      </c>
+      <c r="E42">
+        <v>136.204700921659</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43">
+        <v>0.24694179999994501</v>
+      </c>
+      <c r="E43">
+        <v>92.289236981566802</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44">
+        <v>1.9750976999999901</v>
+      </c>
+      <c r="E44">
+        <v>156.772321152074</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45">
+        <v>1.6106590000000001</v>
+      </c>
+      <c r="E45">
+        <v>358.04367780337901</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46">
+        <v>2.31059780000004</v>
+      </c>
+      <c r="E46">
+        <v>9.3492252620583702</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47">
+        <v>0.46518179999998199</v>
+      </c>
+      <c r="E47">
+        <v>130.368160975422</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>0.80517580000002897</v>
+      </c>
+      <c r="E48">
+        <v>259.73519453148998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49">
+        <v>1.5721449000000101</v>
+      </c>
+      <c r="E49">
+        <v>84.886709554531507</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50">
+        <v>7.6253487999999798</v>
+      </c>
+      <c r="E50">
+        <v>77.940882142857106</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51">
+        <v>9.6264648000000097</v>
+      </c>
+      <c r="E51">
+        <v>132.05844055299499</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <v>1.03902249999999</v>
+      </c>
+      <c r="E52">
+        <v>169.71287493855601</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53">
+        <v>6.0747840000000197</v>
+      </c>
+      <c r="E53">
+        <v>66.945121344086004</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54">
+        <v>0.187011699999971</v>
+      </c>
+      <c r="E54">
+        <v>358.03006428571399</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55">
+        <v>4.8367299999999904</v>
+      </c>
+      <c r="E55">
+        <v>78.592327795698907</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56">
+        <v>1.5578961999999601</v>
+      </c>
+      <c r="E56">
+        <v>132.177480337942</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57">
+        <v>2.0269367999999899</v>
+      </c>
+      <c r="E57">
+        <v>123.69781616743499</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58">
+        <v>6.7200752999999596</v>
+      </c>
+      <c r="E58">
+        <v>94.100650000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59">
+        <v>0.52327470000000198</v>
+      </c>
+      <c r="E59">
+        <v>111.478034039939</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60">
+        <v>2.9383952</v>
+      </c>
+      <c r="E60">
+        <v>210.955196466974</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>226</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61">
+        <v>2.4663085999999899</v>
+      </c>
+      <c r="E61">
+        <v>184.206114116744</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62">
+        <v>4.2421875</v>
+      </c>
+      <c r="E62">
+        <v>320.21874953917001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63">
+        <v>1.9282226999999901</v>
+      </c>
+      <c r="E63">
+        <v>186.43960506912501</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64">
+        <v>9.7860164999999597</v>
+      </c>
+      <c r="E64">
+        <v>103.248665192012</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65">
+        <v>0.55968299999994997</v>
+      </c>
+      <c r="E65">
+        <v>174.751337173579</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66">
+        <v>0.82691490000001999</v>
+      </c>
+      <c r="E66">
+        <v>218.41896298003101</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67">
+        <v>1.5597331000000201</v>
+      </c>
+      <c r="E67">
+        <v>141.12832770353299</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68">
+        <v>0.28801619999995898</v>
+      </c>
+      <c r="E68">
+        <v>180.0844906298</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69">
+        <v>8.2284459000000005</v>
+      </c>
+      <c r="E69">
+        <v>92.822912872503807</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70">
+        <v>3.5774445999999802</v>
+      </c>
+      <c r="E70">
+        <v>118.62780529953901</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71">
+        <v>0.83780669999998703</v>
+      </c>
+      <c r="E71">
+        <v>302.03110245775702</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>237</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72">
+        <v>0.33975979999996803</v>
+      </c>
+      <c r="E72">
+        <v>94.301422365591407</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73">
+        <v>4.9887694999999903</v>
+      </c>
+      <c r="E73">
+        <v>133.452985952381</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74">
+        <v>2.6643107000000401</v>
+      </c>
+      <c r="E74">
+        <v>39.639886720430098</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75">
+        <v>3.62508020000001</v>
+      </c>
+      <c r="E75">
+        <v>46.002300952380999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76">
+        <v>3.7822266</v>
+      </c>
+      <c r="E76">
+        <v>42.504329359446999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77">
+        <v>7.0912895000000198</v>
+      </c>
+      <c r="E77">
+        <v>127.081070030722</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78">
+        <v>1.1528321000000099</v>
+      </c>
+      <c r="E78">
+        <v>136.14894626728099</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79">
+        <v>4.7352538999999796</v>
+      </c>
+      <c r="E79">
+        <v>19.499688871735799</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>245</v>
+      </c>
+      <c r="C80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80">
+        <v>1.9139094000000201</v>
+      </c>
+      <c r="E80">
+        <v>122.54757657450099</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81">
+        <v>0.31675119999999901</v>
+      </c>
+      <c r="E81">
+        <v>33.107824508448502</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82">
+        <v>0.92204309999999601</v>
+      </c>
+      <c r="E82">
+        <v>159.28859228878599</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83">
+        <v>1.9306654000000101</v>
+      </c>
+      <c r="E83">
+        <v>72.035560599078295</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" t="s">
+        <v>86</v>
+      </c>
+      <c r="D84">
+        <v>0.53067299999997897</v>
+      </c>
+      <c r="E84">
+        <v>151.60597788018401</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85">
+        <v>4.09423830000003</v>
+      </c>
+      <c r="E85">
+        <v>39.806212512288802</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D86">
+        <v>0.54296870000001696</v>
+      </c>
+      <c r="E86">
+        <v>130.18045606758801</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87">
+        <v>1.6315252</v>
+      </c>
+      <c r="E87">
+        <v>149.23343901689699</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88">
+        <v>2.3789674999999901</v>
+      </c>
+      <c r="E88">
+        <v>5.7509274350998503</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>254</v>
+      </c>
+      <c r="C89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89">
+        <v>0.97328410000000098</v>
+      </c>
+      <c r="E89">
+        <v>205.69596058371701</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90">
+        <v>3.6054687999999802</v>
+      </c>
+      <c r="E90">
+        <v>143.53000318740399</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91">
+        <v>7.0237482</v>
+      </c>
+      <c r="E91">
+        <v>72.057837096774193</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" t="s">
+        <v>94</v>
+      </c>
+      <c r="D92">
+        <v>4.3891600999999696</v>
+      </c>
+      <c r="E92">
+        <v>96.895467864823303</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>258</v>
+      </c>
+      <c r="C93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93">
+        <v>11.5119407</v>
+      </c>
+      <c r="E93">
+        <v>75.742613364055302</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94">
+        <v>2.5666424999999999</v>
+      </c>
+      <c r="E94">
+        <v>73.324072588325706</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>260</v>
+      </c>
+      <c r="C95" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95">
+        <v>19.086208800000001</v>
+      </c>
+      <c r="E95">
+        <v>80.245954608294895</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96">
+        <v>0.55968730000000699</v>
+      </c>
+      <c r="E96">
+        <v>119.080166436252</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>262</v>
+      </c>
+      <c r="C97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97">
+        <v>1.68290480000002</v>
+      </c>
+      <c r="E97">
+        <v>102.087685414747</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" t="s">
+        <v>100</v>
+      </c>
+      <c r="D98">
+        <v>10.3227539</v>
+      </c>
+      <c r="E98">
+        <v>97.052967450076807</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>264</v>
+      </c>
+      <c r="C99" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99">
+        <v>3.3914189000000201</v>
+      </c>
+      <c r="E99">
+        <v>72.395637857142901</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100">
+        <v>2.52704090000003</v>
+      </c>
+      <c r="E100">
+        <v>150.47499508448499</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>266</v>
+      </c>
+      <c r="C101" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101">
+        <v>10.931152300000001</v>
+      </c>
+      <c r="E101">
+        <v>222.406867741936</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>267</v>
+      </c>
+      <c r="C102" t="s">
+        <v>104</v>
+      </c>
+      <c r="D102">
+        <v>6.2507273999999899</v>
+      </c>
+      <c r="E102">
+        <v>36.398926889400897</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>268</v>
+      </c>
+      <c r="C103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103">
+        <v>0.79629799999997897</v>
+      </c>
+      <c r="E103">
+        <v>103.875069139785</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>269</v>
+      </c>
+      <c r="C104" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104">
+        <v>6.6260598999999702</v>
+      </c>
+      <c r="E104">
+        <v>27.349294793394801</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>270</v>
+      </c>
+      <c r="C105" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105">
+        <v>0.82958980000000804</v>
+      </c>
+      <c r="E105">
+        <v>157.33085668202801</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>271</v>
+      </c>
+      <c r="C106" t="s">
+        <v>108</v>
+      </c>
+      <c r="D106">
+        <v>0.31163190000000901</v>
+      </c>
+      <c r="E106">
+        <v>296.31162357910898</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107">
+        <v>0.321208500000012</v>
+      </c>
+      <c r="E107">
+        <v>76.763001666666696</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" t="s">
+        <v>110</v>
+      </c>
+      <c r="D108">
+        <v>0.80064679999998101</v>
+      </c>
+      <c r="E108">
+        <v>50.841943917050699</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>274</v>
+      </c>
+      <c r="C109" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109">
+        <v>0.80721030000000804</v>
+      </c>
+      <c r="E109">
+        <v>75.624229508448593</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>275</v>
+      </c>
+      <c r="C110" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110">
+        <v>1.5534479999999999</v>
+      </c>
+      <c r="E110">
+        <v>170.330839631336</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>276</v>
+      </c>
+      <c r="C111" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111">
+        <v>6.8434264000000002</v>
+      </c>
+      <c r="E111">
+        <v>153.38378379416301</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>277</v>
+      </c>
+      <c r="C112" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112">
+        <v>4.7893336999999896</v>
+      </c>
+      <c r="E112">
+        <v>104.401997711213</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>278</v>
+      </c>
+      <c r="C113" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113">
+        <v>3.9141590999999498</v>
+      </c>
+      <c r="E113">
+        <v>132.79635943932399</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>279</v>
+      </c>
+      <c r="C114" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114">
+        <v>2.74687499999999</v>
+      </c>
+      <c r="E114">
+        <v>194.26165053763401</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>280</v>
+      </c>
+      <c r="C115" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115">
+        <v>0.27865229999997598</v>
+      </c>
+      <c r="E115">
+        <v>84.908399615975398</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>281</v>
+      </c>
+      <c r="C116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116">
+        <v>3.5133559999999902</v>
+      </c>
+      <c r="E116">
+        <v>27.037977348463901</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>282</v>
+      </c>
+      <c r="C117" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117">
+        <v>5.64383359999999</v>
+      </c>
+      <c r="E117">
+        <v>62.523110391705103</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118">
+        <v>9.0332000000046306E-2</v>
+      </c>
+      <c r="E118">
+        <v>301.30576543778801</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>284</v>
+      </c>
+      <c r="C119" t="s">
+        <v>121</v>
+      </c>
+      <c r="D119">
+        <v>1.03430530000003</v>
+      </c>
+      <c r="E119">
+        <v>146.604208525346</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>285</v>
+      </c>
+      <c r="C120" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120">
+        <v>0.57830160000003195</v>
+      </c>
+      <c r="E120">
+        <v>397.91936313364101</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>286</v>
+      </c>
+      <c r="C121" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121">
+        <v>0.50439460000001202</v>
+      </c>
+      <c r="E121">
+        <v>354.67444915514602</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>287</v>
+      </c>
+      <c r="C122" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122">
+        <v>6.77600770000004</v>
+      </c>
+      <c r="E122">
+        <v>60.761337534562202</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>288</v>
+      </c>
+      <c r="C123" t="s">
+        <v>125</v>
+      </c>
+      <c r="D123">
+        <v>1.2513998</v>
+      </c>
+      <c r="E123">
+        <v>138.92583366359401</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>289</v>
+      </c>
+      <c r="C124" t="s">
+        <v>126</v>
+      </c>
+      <c r="D124">
+        <v>1.9853890999999599</v>
+      </c>
+      <c r="E124">
+        <v>188.34776235791099</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>290</v>
+      </c>
+      <c r="C125" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125">
+        <v>5.0307617000000304</v>
+      </c>
+      <c r="E125">
+        <v>28.279382930107499</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>291</v>
+      </c>
+      <c r="C126" t="s">
+        <v>128</v>
+      </c>
+      <c r="D126">
+        <v>15.0451096</v>
+      </c>
+      <c r="E126">
+        <v>78.038671720430102</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>292</v>
+      </c>
+      <c r="C127" t="s">
+        <v>129</v>
+      </c>
+      <c r="D127">
+        <v>5.0031602999999896</v>
+      </c>
+      <c r="E127">
+        <v>17.550555960061399</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>293</v>
+      </c>
+      <c r="C128" t="s">
+        <v>130</v>
+      </c>
+      <c r="D128">
+        <v>1.3334960999999901</v>
+      </c>
+      <c r="E128">
+        <v>333.96377273425497</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>294</v>
+      </c>
+      <c r="C129" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129">
+        <v>0.51578580000000296</v>
+      </c>
+      <c r="E129">
+        <v>72.849273256528406</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>295</v>
+      </c>
+      <c r="C130" t="s">
+        <v>132</v>
+      </c>
+      <c r="D130">
+        <v>3.9286951999999902</v>
+      </c>
+      <c r="E130">
+        <v>16.590126977726602</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>296</v>
+      </c>
+      <c r="C131" t="s">
+        <v>133</v>
+      </c>
+      <c r="D131">
+        <v>0.370369100000005</v>
+      </c>
+      <c r="E131">
+        <v>73.770272400921698</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>297</v>
+      </c>
+      <c r="C132" t="s">
+        <v>134</v>
+      </c>
+      <c r="D132">
+        <v>4.44012739999999</v>
+      </c>
+      <c r="E132">
+        <v>144.84222237327199</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>298</v>
+      </c>
+      <c r="C133" t="s">
+        <v>135</v>
+      </c>
+      <c r="D133">
+        <v>4.4208441999999799</v>
+      </c>
+      <c r="E133">
+        <v>189.24125211981601</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>299</v>
+      </c>
+      <c r="C134" t="s">
+        <v>136</v>
+      </c>
+      <c r="D134">
+        <v>2.7868652999999899</v>
+      </c>
+      <c r="E134">
+        <v>209.67014831029201</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>300</v>
+      </c>
+      <c r="C135" t="s">
+        <v>137</v>
+      </c>
+      <c r="D135">
+        <v>0.22124810000002501</v>
+      </c>
+      <c r="E135">
+        <v>78.083007342549905</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>301</v>
+      </c>
+      <c r="C136" t="s">
+        <v>138</v>
+      </c>
+      <c r="D136">
+        <v>13.3977322</v>
+      </c>
+      <c r="E136">
+        <v>101.990721758833</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>302</v>
+      </c>
+      <c r="C137" t="s">
+        <v>139</v>
+      </c>
+      <c r="D137">
+        <v>0.950614799999983</v>
+      </c>
+      <c r="E137">
+        <v>320.50661347926302</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" t="s">
+        <v>140</v>
+      </c>
+      <c r="D138">
+        <v>6.0853406999999597</v>
+      </c>
+      <c r="E138">
+        <v>144.20768087557599</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>304</v>
+      </c>
+      <c r="C139" t="s">
+        <v>141</v>
+      </c>
+      <c r="D139">
+        <v>0.68447259999999199</v>
+      </c>
+      <c r="E139">
+        <v>312.23289999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>305</v>
+      </c>
+      <c r="C140" t="s">
+        <v>142</v>
+      </c>
+      <c r="D140">
+        <v>6.79052739999997</v>
+      </c>
+      <c r="E140">
+        <v>80.586472311828004</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>306</v>
+      </c>
+      <c r="C141" t="s">
+        <v>143</v>
+      </c>
+      <c r="D141">
+        <v>6.2390951000000401</v>
+      </c>
+      <c r="E141">
+        <v>124.479233832565</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>307</v>
+      </c>
+      <c r="C142" t="s">
+        <v>144</v>
+      </c>
+      <c r="D142">
+        <v>4.5381118000000198</v>
+      </c>
+      <c r="E142">
+        <v>75.2966029185868</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" t="s">
+        <v>145</v>
+      </c>
+      <c r="D143">
+        <v>4.73632999999722E-2</v>
+      </c>
+      <c r="E143">
+        <v>287.72611030721998</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>309</v>
+      </c>
+      <c r="C144" t="s">
+        <v>146</v>
+      </c>
+      <c r="D144">
+        <v>3.5432617000000199</v>
+      </c>
+      <c r="E144">
+        <v>45.108282661290303</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>310</v>
+      </c>
+      <c r="C145" t="s">
+        <v>147</v>
+      </c>
+      <c r="D145">
+        <v>0.49272360000003301</v>
+      </c>
+      <c r="E145">
+        <v>51.970612104454702</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>311</v>
+      </c>
+      <c r="C146" t="s">
+        <v>148</v>
+      </c>
+      <c r="D146">
+        <v>1.5270507999999801</v>
+      </c>
+      <c r="E146">
+        <v>121.82087857142901</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>312</v>
+      </c>
+      <c r="C147" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147">
+        <v>1.2832199999999701</v>
+      </c>
+      <c r="E147">
+        <v>122.49229109063</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>313</v>
+      </c>
+      <c r="C148" t="s">
+        <v>150</v>
+      </c>
+      <c r="D148">
+        <v>4.1470447999999998</v>
+      </c>
+      <c r="E148">
+        <v>73.285680099846402</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>314</v>
+      </c>
+      <c r="C149" t="s">
+        <v>151</v>
+      </c>
+      <c r="D149">
+        <v>7.2617716999999997</v>
+      </c>
+      <c r="E149">
+        <v>29.708110499231999</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>315</v>
+      </c>
+      <c r="C150" t="s">
+        <v>152</v>
+      </c>
+      <c r="D150">
+        <v>0.72314460000001202</v>
+      </c>
+      <c r="E150">
+        <v>249.17145883256501</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>316</v>
+      </c>
+      <c r="C151" t="s">
+        <v>153</v>
+      </c>
+      <c r="D151">
+        <v>6.5875975999999801</v>
+      </c>
+      <c r="E151">
+        <v>40.206740181259597</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>317</v>
+      </c>
+      <c r="C152" t="s">
+        <v>154</v>
+      </c>
+      <c r="D152">
+        <v>7.0868786999999998</v>
+      </c>
+      <c r="E152">
+        <v>58.415460599078301</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>318</v>
+      </c>
+      <c r="C153" t="s">
+        <v>155</v>
+      </c>
+      <c r="D153">
+        <v>0.53208979999999395</v>
+      </c>
+      <c r="E153">
+        <v>215.55468596774199</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>319</v>
+      </c>
+      <c r="C154" t="s">
+        <v>156</v>
+      </c>
+      <c r="D154">
+        <v>3.3244281000000302</v>
+      </c>
+      <c r="E154">
+        <v>30.354732082949301</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>320</v>
+      </c>
+      <c r="C155" t="s">
+        <v>157</v>
+      </c>
+      <c r="D155">
+        <v>0.67765299999996398</v>
+      </c>
+      <c r="E155">
+        <v>393.23433502304198</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>321</v>
+      </c>
+      <c r="C156" t="s">
+        <v>158</v>
+      </c>
+      <c r="D156">
+        <v>17.320073399999998</v>
+      </c>
+      <c r="E156">
+        <v>50.654839362519198</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>322</v>
+      </c>
+      <c r="C157" t="s">
+        <v>159</v>
+      </c>
+      <c r="D157">
+        <v>5.8395057000000197</v>
+      </c>
+      <c r="E157">
+        <v>214.63976219662101</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>323</v>
+      </c>
+      <c r="C158" t="s">
+        <v>160</v>
+      </c>
+      <c r="D158">
+        <v>4.6274542999999504</v>
+      </c>
+      <c r="E158">
+        <v>58.466546351766503</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>324</v>
+      </c>
+      <c r="C159" t="s">
+        <v>161</v>
+      </c>
+      <c r="D159">
+        <v>4.5221679000000004</v>
+      </c>
+      <c r="E159">
+        <v>34.914453855606801</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>325</v>
+      </c>
+      <c r="C160" t="s">
+        <v>162</v>
+      </c>
+      <c r="D160">
+        <v>1.65527830000002</v>
+      </c>
+      <c r="E160">
+        <v>139.94346190476199</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>326</v>
+      </c>
+      <c r="C161" t="s">
+        <v>163</v>
+      </c>
+      <c r="D161">
+        <v>3.4225355999999998</v>
+      </c>
+      <c r="E161">
+        <v>120.55566344086</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>327</v>
+      </c>
+      <c r="C162" t="s">
+        <v>164</v>
+      </c>
+      <c r="D162">
+        <v>3.3780158000000098</v>
+      </c>
+      <c r="E162">
+        <v>52.345889125192002</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>328</v>
+      </c>
+      <c r="C163" t="s">
+        <v>165</v>
+      </c>
+      <c r="D163">
+        <v>0.15539129999996201</v>
+      </c>
+      <c r="E163">
+        <v>129.641677096774</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>329</v>
+      </c>
+      <c r="C164" t="s">
+        <v>166</v>
+      </c>
+      <c r="D164">
+        <v>2.7265520999999899</v>
+      </c>
+      <c r="E164">
+        <v>106.560062173579</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>